--- a/koboforms/section2.xlsx
+++ b/koboforms/section2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/generateKobo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/whatsthepointgameinteractive/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3410A516-44FD-3541-9136-B1721CACD16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C095D-E0F5-DA4F-8142-95F3FEB7412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32300" yWindow="-19840" windowWidth="28040" windowHeight="17440" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="-32300" yWindow="-19840" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>q2</t>
   </si>
   <si>
-    <t>WhatsThePointGameInteractive_Section2</t>
-  </si>
-  <si>
     <t>Your email</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>What would have happened if it was the opposite kind of year?</t>
+  </si>
+  <si>
+    <t>Any Regrets?</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7F9E-9867-6243-AAB9-77628DC2993D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -543,13 +543,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -588,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -599,13 +599,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -628,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -639,24 +639,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
